--- a/Revised/figure3la2.xlsx
+++ b/Revised/figure3la2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>IndMill</t>
   </si>
@@ -1516,7 +1516,675 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure3la2!$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent millennials</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure3la2!$AI$23:$AW$23</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Housing Unit/acre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Residents/acre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jobs/acre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walkscore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bikescore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alltransit measure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commute monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Commute multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Commute multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Leisure monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leisure multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Last commute mono car</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Last commute mono non-car</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Last commute multimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure3la2!$AI$24:$AW$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.3890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BAD-4CBB-B212-2AC1D68D74A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure3la2!$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dependent millennials</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure3la2!$AI$23:$AW$23</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Housing Unit/acre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Residents/acre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jobs/acre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walkscore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bikescore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alltransit measure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commute monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Commute multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Commute multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Leisure monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leisure multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Last commute mono car</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Last commute mono non-car</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Last commute multimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure3la2!$AI$25:$AW$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.8890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.276999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.295999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BAD-4CBB-B212-2AC1D68D74A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure3la2!$Q$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generation Xers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure3la2!$AI$23:$AW$23</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Housing Unit/acre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Residents/acre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jobs/acre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walkscore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bikescore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alltransit measure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commute monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Commute multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Commute multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Leisure monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leisure multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Last commute mono car</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Last commute mono non-car</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Last commute multimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure3la2!$AI$26:$AW$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BAD-4CBB-B212-2AC1D68D74A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="604039912"/>
+        <c:axId val="604038928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="604039912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604038928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604038928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604039912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2059,20 +2727,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2086,6 +3257,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2357,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="T13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3235,7 +4438,7 @@
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3258,7 +4461,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3320,7 +4523,7 @@
         <v>0.86084999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3382,7 +4585,7 @@
         <v>8.0199999999999994E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3444,7 +4647,7 @@
         <v>5.8899999999999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="R23" s="1" t="s">
         <v>69</v>
       </c>
@@ -3490,8 +4693,53 @@
       <c r="AF23" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="AI23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="Q24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3549,8 +4797,56 @@
         <f t="shared" si="12"/>
         <v>18.600000000000001</v>
       </c>
+      <c r="AH24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI24" s="9">
+        <v>7.3890000000000002</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>18.106999999999999</v>
+      </c>
+      <c r="AK24" s="9">
+        <v>10.682</v>
+      </c>
+      <c r="AL24" s="9">
+        <v>61.808</v>
+      </c>
+      <c r="AM24" s="9">
+        <v>26.722999999999999</v>
+      </c>
+      <c r="AN24" s="9">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="AO24" s="9">
+        <v>68.7</v>
+      </c>
+      <c r="AP24" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="AQ24" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="AR24" s="9">
+        <v>68.3</v>
+      </c>
+      <c r="AS24" s="9">
+        <v>21.3</v>
+      </c>
+      <c r="AT24" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="AU24" s="9">
+        <v>66.2</v>
+      </c>
+      <c r="AV24" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="AW24" s="9">
+        <v>18.600000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="Q25" s="1" t="s">
         <v>94</v>
       </c>
@@ -3608,8 +4904,56 @@
         <f t="shared" si="13"/>
         <v>21.907</v>
       </c>
+      <c r="AH25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>4.8890000000000002</v>
+      </c>
+      <c r="AJ25" s="9">
+        <v>15.276999999999999</v>
+      </c>
+      <c r="AK25" s="9">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="AL25" s="9">
+        <v>48.732999999999997</v>
+      </c>
+      <c r="AM25" s="9">
+        <v>14.295999999999999</v>
+      </c>
+      <c r="AN25" s="9">
+        <v>52.09</v>
+      </c>
+      <c r="AO25" s="9">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="AP25" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="AQ25" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AR25" s="9">
+        <v>70.2</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="AT25" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AU25" s="9">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AV25" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="AW25" s="9">
+        <v>21.9</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="Q26" s="1" t="s">
         <v>95</v>
       </c>
@@ -3667,8 +5011,56 @@
         <f t="shared" si="14"/>
         <v>5.89</v>
       </c>
+      <c r="AH26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI26" s="9">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="AJ26" s="9">
+        <v>15.991</v>
+      </c>
+      <c r="AK26" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="AL26" s="9">
+        <v>57.353000000000002</v>
+      </c>
+      <c r="AM26" s="9">
+        <v>23.78</v>
+      </c>
+      <c r="AN26" s="9">
+        <v>58.55</v>
+      </c>
+      <c r="AO26" s="9">
+        <v>87.7</v>
+      </c>
+      <c r="AP26" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AQ26" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AR26" s="9">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>10.9</v>
+      </c>
+      <c r="AT26" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="AU26" s="9">
+        <v>86.1</v>
+      </c>
+      <c r="AV26" s="9">
+        <v>8</v>
+      </c>
+      <c r="AW26" s="9">
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="X27" s="7">
         <v>0.65129999999999999</v>
       </c>
@@ -3696,8 +5088,44 @@
       <c r="AF27" s="7">
         <v>0.18600000000000003</v>
       </c>
+      <c r="AO27" s="7">
+        <f>AO24/100</f>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="AP27" s="7">
+        <f t="shared" ref="AP27:AW27" si="15">AP24/100</f>
+        <v>0.126</v>
+      </c>
+      <c r="AQ27" s="7">
+        <f t="shared" si="15"/>
+        <v>0.187</v>
+      </c>
+      <c r="AR27" s="7">
+        <f t="shared" si="15"/>
+        <v>0.68299999999999994</v>
+      </c>
+      <c r="AS27" s="7">
+        <f t="shared" si="15"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AT27" s="7">
+        <f t="shared" si="15"/>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="AU27" s="7">
+        <f t="shared" si="15"/>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AV27" s="7">
+        <f t="shared" si="15"/>
+        <v>0.152</v>
+      </c>
+      <c r="AW27" s="7">
+        <f t="shared" si="15"/>
+        <v>0.18600000000000003</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="X28" s="7">
         <v>0.62545000000000006</v>
       </c>
@@ -3725,8 +5153,44 @@
       <c r="AF28" s="7">
         <v>0.21906999999999999</v>
       </c>
+      <c r="AO28" s="7">
+        <f t="shared" ref="AO28:AW28" si="16">AO25/100</f>
+        <v>0.67599999999999993</v>
+      </c>
+      <c r="AP28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.12300000000000001</v>
+      </c>
+      <c r="AQ28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AR28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="AS28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AT28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AU28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AV28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.127</v>
+      </c>
+      <c r="AW28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.21899999999999997</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="X29" s="7">
         <v>0.84885999999999995</v>
       </c>
@@ -3753,6 +5217,42 @@
       </c>
       <c r="AF29" s="7">
         <v>5.8899999999999994E-2</v>
+      </c>
+      <c r="AO29" s="7">
+        <f t="shared" ref="AO29:AW29" si="17">AO26/100</f>
+        <v>0.877</v>
+      </c>
+      <c r="AP29" s="7">
+        <f t="shared" si="17"/>
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="AQ29" s="7">
+        <f t="shared" si="17"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AR29" s="7">
+        <f t="shared" si="17"/>
+        <v>0.78099999999999992</v>
+      </c>
+      <c r="AS29" s="7">
+        <f t="shared" si="17"/>
+        <v>0.109</v>
+      </c>
+      <c r="AT29" s="7">
+        <f t="shared" si="17"/>
+        <v>0.111</v>
+      </c>
+      <c r="AU29" s="7">
+        <f t="shared" si="17"/>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AV29" s="7">
+        <f t="shared" si="17"/>
+        <v>0.08</v>
+      </c>
+      <c r="AW29" s="7">
+        <f t="shared" si="17"/>
+        <v>5.9000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
